--- a/src/data/year_jw.xlsx
+++ b/src/data/year_jw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamurasatoru/git/d_hi/honchoseiki/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0F0CE5-878F-8048-938E-E15A77C42909}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53697AA-EAE8-8946-9355-66381F990386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{5DDE8BC9-BAE8-4D47-BC5C-EAF423FAA87E}"/>
+    <workbookView xWindow="-67200" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{5DDE8BC9-BAE8-4D47-BC5C-EAF423FAA87E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6341,14 +6341,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD0B4E1-890D-C448-A009-80A487F48A48}">
   <dimension ref="A1:J1769"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
-      <selection activeCell="F586" sqref="F586"/>
+    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="L317" sqref="L317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="6" max="7" width="64.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
